--- a/testdata/apiList.xlsx
+++ b/testdata/apiList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="apiList" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t xml:space="preserve">testcase_id</t>
   </si>
@@ -46,40 +46,43 @@
     <t xml:space="preserve">POST</t>
   </si>
   <si>
+    <t xml:space="preserve">https://reqres.in/api/users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content-Type:application/json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.7timer.info/bin/astro.php?lon=113.2&amp;lat=23.1&amp;ac=0&amp;unit=metric&amp;output=json&amp;tzshift=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept:application/json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://reqbin.com/echo/put/json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content-Type: application/json </t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_1_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://reqbin.com/echo/post/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content-Type:application/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.7timer.info/bin/astro.php?lon=113.2&amp;lat=23.1&amp;ac=0&amp;unit=metric&amp;output=json&amp;tzshift=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept:application/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://reqbin.com/echo/put/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content-Type: application/json </t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_1_2</t>
   </si>
   <si>
     <t xml:space="preserve">testcase_payment_2_2</t>
@@ -222,14 +225,14 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.98"/>
@@ -252,7 +255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -299,7 +302,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://reqbin.com/echo/post/json"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://reqres.in/api/users"/>
     <hyperlink ref="E2" r:id="rId2" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -323,7 +326,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
@@ -357,7 +360,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -368,7 +371,7 @@
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
@@ -382,7 +385,7 @@
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
@@ -416,17 +419,18 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="68.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,13 +452,13 @@
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -465,7 +469,7 @@
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
@@ -479,7 +483,7 @@
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
@@ -517,7 +521,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
@@ -545,13 +549,13 @@
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -562,7 +566,7 @@
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
@@ -576,7 +580,7 @@
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>

--- a/testdata/apiList.xlsx
+++ b/testdata/apiList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="apiList" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
   <si>
     <t xml:space="preserve">testcase_id</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Content-Type:application/json</t>
   </si>
   <si>
-    <t xml:space="preserve">D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json</t>
+    <t xml:space="preserve">D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json</t>
   </si>
   <si>
     <t xml:space="preserve">testcase_payment_2</t>
@@ -77,6 +77,72 @@
   </si>
   <si>
     <t xml:space="preserve">Content-Type: application/json </t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://reqres.in/api/users?page=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api.coindesk.com/v1/bpi/currentprice.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://reqres.in/api/users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://reqres.in/api/users/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://httpbin.org/get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_data_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thetestingworldapi.com/api/studentsDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_add_tech_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thetestingworldapi.com/api/technicalskills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_address_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thetestingworldapi.com/api/addresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_final_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thetestingworldapi.com/api/api/FinalStudentDetails/12680237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_basic_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api.github.com/users</t>
   </si>
   <si>
     <t xml:space="preserve">testcase_payment_1_2</t>
@@ -114,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,6 +209,17 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,6 +277,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,17 +321,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.98"/>
   </cols>
@@ -252,7 +353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -269,7 +370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -282,8 +383,11 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -296,15 +400,229 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://reqbin.com/echo/post/json"/>
-    <hyperlink ref="E2" r:id="rId2" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E2" r:id="rId2" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E3" r:id="rId3" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E4" r:id="rId4" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C5" r:id="rId5" display="https://reqres.in/api/users?page=2"/>
+    <hyperlink ref="E5" r:id="rId6" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C6" r:id="rId7" display="https://api.coindesk.com/v1/bpi/currentprice.json"/>
+    <hyperlink ref="E6" r:id="rId8" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C7" r:id="rId9" display="https://reqres.in/api/users"/>
+    <hyperlink ref="E7" r:id="rId10" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E8" r:id="rId11" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E9" r:id="rId12" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E10" r:id="rId13" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C11" r:id="rId14" display="https://thetestingworldapi.com/api/studentsDetails"/>
+    <hyperlink ref="E11" r:id="rId15" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C12" r:id="rId16" display="https://thetestingworldapi.com/api/technicalskills"/>
+    <hyperlink ref="E12" r:id="rId17" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C13" r:id="rId18" display="https://thetestingworldapi.com/api/addresses"/>
+    <hyperlink ref="E13" r:id="rId19" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C14" r:id="rId20" display="https://thetestingworldapi.com/api/api/FinalStudentDetails/12680237"/>
+    <hyperlink ref="E14" r:id="rId21" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C15" r:id="rId22" display="https://api.github.com/users"/>
+    <hyperlink ref="E15" r:id="rId23" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -319,13 +637,13 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40"/>
@@ -349,9 +667,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -366,9 +684,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
@@ -379,10 +697,13 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
@@ -392,16 +713,21 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://reqbin.com/echo/post/json"/>
-    <hyperlink ref="E2" r:id="rId2" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E2" r:id="rId2" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E3" r:id="rId3" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E4" r:id="rId4" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -416,13 +742,13 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40"/>
@@ -448,7 +774,7 @@
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -465,7 +791,7 @@
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
@@ -476,10 +802,13 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
@@ -489,16 +818,21 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://reqbin.com/echo/post/json"/>
-    <hyperlink ref="E2" r:id="rId2" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E2" r:id="rId2" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E3" r:id="rId3" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E4" r:id="rId4" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -514,12 +848,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40"/>
@@ -543,9 +877,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -560,9 +894,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
@@ -573,10 +907,13 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
@@ -586,16 +923,21 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://reqbin.com/echo/post/json"/>
-    <hyperlink ref="E2" r:id="rId2" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E2" r:id="rId2" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E3" r:id="rId3" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E4" r:id="rId4" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/testdata/apiList.xlsx
+++ b/testdata/apiList.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t xml:space="preserve">testcase_id</t>
   </si>
@@ -46,106 +46,67 @@
     <t xml:space="preserve">POST</t>
   </si>
   <si>
+    <t xml:space="preserve">https://reqres.in/api/users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content-Type:application/json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.7timer.info/bin/astro.php?lon=113.2&amp;lat=23.1&amp;ac=0&amp;unit=metric&amp;output=json&amp;tzshift=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept:application/json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://reqbin.com/echo/put/json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content-Type: application/json </t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api.coindesk.com/v1/bpi/currentprice.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://reqres.in/api/users/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testcase_payment_1_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://reqbin.com/echo/post/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content-Type:application/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.7timer.info/bin/astro.php?lon=113.2&amp;lat=23.1&amp;ac=0&amp;unit=metric&amp;output=json&amp;tzshift=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept:application/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://reqbin.com/echo/put/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content-Type: application/json </t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://reqres.in/api/users?page=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://api.coindesk.com/v1/bpi/currentprice.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://reqres.in/api/users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://reqres.in/api/users/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://httpbin.org/get</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_data_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thetestingworldapi.com/api/studentsDetails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_add_tech_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thetestingworldapi.com/api/technicalskills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_address_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thetestingworldapi.com/api/addresses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_final_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thetestingworldapi.com/api/api/FinalStudentDetails/12680237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_basic_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://api.github.com/users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testcase_payment_1_2</t>
   </si>
   <si>
     <t xml:space="preserve">testcase_payment_2_2</t>
@@ -180,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -209,17 +170,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,27 +230,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -321,17 +259,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.98"/>
   </cols>
@@ -370,7 +308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -383,11 +321,8 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -400,225 +335,85 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="7"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://reqbin.com/echo/post/json"/>
-    <hyperlink ref="E2" r:id="rId2" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E3" r:id="rId3" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E4" r:id="rId4" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="C5" r:id="rId5" display="https://reqres.in/api/users?page=2"/>
-    <hyperlink ref="E5" r:id="rId6" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="C6" r:id="rId7" display="https://api.coindesk.com/v1/bpi/currentprice.json"/>
-    <hyperlink ref="E6" r:id="rId8" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="C7" r:id="rId9" display="https://reqres.in/api/users"/>
-    <hyperlink ref="E7" r:id="rId10" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E8" r:id="rId11" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E9" r:id="rId12" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E10" r:id="rId13" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="C11" r:id="rId14" display="https://thetestingworldapi.com/api/studentsDetails"/>
-    <hyperlink ref="E11" r:id="rId15" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="C12" r:id="rId16" display="https://thetestingworldapi.com/api/technicalskills"/>
-    <hyperlink ref="E12" r:id="rId17" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="C13" r:id="rId18" display="https://thetestingworldapi.com/api/addresses"/>
-    <hyperlink ref="E13" r:id="rId19" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="C14" r:id="rId20" display="https://thetestingworldapi.com/api/api/FinalStudentDetails/12680237"/>
-    <hyperlink ref="E14" r:id="rId21" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="C15" r:id="rId22" display="https://api.github.com/users"/>
-    <hyperlink ref="E15" r:id="rId23" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://reqres.in/api/users"/>
+    <hyperlink ref="E2" r:id="rId2" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://api.coindesk.com/v1/bpi/currentprice.json"/>
+    <hyperlink ref="E5" r:id="rId4" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://reqres.in/api/users"/>
+    <hyperlink ref="E6" r:id="rId6" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E7" r:id="rId7" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E8" r:id="rId8" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -637,13 +432,13 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40"/>
@@ -667,15 +462,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -684,9 +479,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
@@ -697,13 +492,10 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
@@ -713,17 +505,12 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://reqbin.com/echo/post/json"/>
-    <hyperlink ref="E2" r:id="rId2" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E3" r:id="rId3" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E4" r:id="rId4" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E2" r:id="rId2" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -742,17 +529,18 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="68.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,13 +562,13 @@
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -791,7 +579,7 @@
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
@@ -802,13 +590,10 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
@@ -818,17 +603,12 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://reqbin.com/echo/post/json"/>
-    <hyperlink ref="E2" r:id="rId2" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E3" r:id="rId3" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E4" r:id="rId4" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E2" r:id="rId2" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -848,12 +628,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40"/>
@@ -877,15 +657,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -894,9 +674,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
@@ -907,13 +687,10 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
@@ -923,17 +700,12 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://reqbin.com/echo/post/json"/>
-    <hyperlink ref="E2" r:id="rId2" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E3" r:id="rId3" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
-    <hyperlink ref="E4" r:id="rId4" display="D:/Users/ssreeenivasreddy/Altimetrik_JCL/pythonseleniumframework/testdata/testcase_payment.json"/>
+    <hyperlink ref="E2" r:id="rId2" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/testdata/apiList.xlsx
+++ b/testdata/apiList.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t xml:space="preserve">testcase_id</t>
   </si>
@@ -223,13 +223,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.3"/>
@@ -300,10 +300,29 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://reqres.in/api/users"/>
     <hyperlink ref="E2" r:id="rId2" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://reqres.in/api/users"/>
+    <hyperlink ref="E5" r:id="rId4" display="D:/Users/sjyothi/Repos/pythonseleniumFramework/testdata/testcase_payment.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -326,7 +345,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
@@ -423,7 +442,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
@@ -521,7 +540,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
